--- a/medicine/Enfance/Araxe_(périodique_illustré)/Araxe_(périodique_illustré).xlsx
+++ b/medicine/Enfance/Araxe_(périodique_illustré)/Araxe_(périodique_illustré).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Araxe_(p%C3%A9riodique_illustr%C3%A9)</t>
+          <t>Araxe_(périodique_illustré)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Araxe (arménien : Արաքս, en référence à l'Araxe) est un périodique illustré en langue arménienne publié entre 1952 et 1955 à Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Araxe_(p%C3%A9riodique_illustr%C3%A9)</t>
+          <t>Araxe_(périodique_illustré)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Araxe paraît pour la première fois le 25 novembre 1952 à Paris. Ce périodique est publié les 5, 15 et 25 de chaque mois entre 1952 et 1954, puis une fois par mois en 1955.
 On y trouve, généralement sous forme de bande dessinée, des extraits d’œuvres pour enfants d'écrivains arméniens comme Hovhannès Toumanian, Avetik Issahakian ou Khnko Aber, mais aussi des fables, des chansons, des poèmes, etc.
